--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAF0EC4-688C-4208-91D9-028A6764C847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CDA933-0344-4577-B0C7-980FC3362860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,16 @@
   </si>
   <si>
     <t>作りたいクラフトを選択してください。</t>
+  </si>
+  <si>
+    <t>持っているクラフトシード足りないです。</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -115,8 +125,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -422,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -457,6 +467,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1010002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CDA933-0344-4577-B0C7-980FC3362860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83457E-4E59-4A1D-A1C4-4AFB0B1EA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +56,16 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図名を入力してください。</t>
+    <rPh sb="0" eb="4">
+      <t>セッケイズメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,7 +445,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -471,6 +481,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83457E-4E59-4A1D-A1C4-4AFB0B1EA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA23BE-996B-4A30-AEDC-CCBED80859BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -48,16 +39,6 @@
   </si>
   <si>
     <t>作りたいクラフトを選択してください。</t>
-  </si>
-  <si>
-    <t>持っているクラフトシード足りないです。</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>設計図名を入力してください。</t>
@@ -66,6 +47,49 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているクラフトシードが不足しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換に成功しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているクリスタルが不足しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図に必要なブロックが不足しています。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,8 +159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -442,18 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,20 +501,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1010001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1010002</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1010002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1010003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83457E-4E59-4A1D-A1C4-4AFB0B1EA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25376C57-2494-4DA6-AAC8-80839C02DBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FA23BE-996B-4A30-AEDC-CCBED80859BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FC2EA-59E6-41B1-BF8C-576572D5F95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,15 +469,15 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="49.69921875" customWidth="1"/>
+    <col min="2" max="2" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,25 +517,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1010001</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FC2EA-59E6-41B1-BF8C-576572D5F95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B1A3F-B8B2-4BB3-9438-6888A79C7CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="2316" yWindow="1056" windowWidth="17280" windowHeight="8976" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -90,6 +90,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトに成功しました。</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -159,8 +166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -466,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="49.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -525,19 +532,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>1010001</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>1010002</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4B1A3F-B8B2-4BB3-9438-6888A79C7CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E1753-AC21-4D31-A57D-953F049D2C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1056" windowWidth="17280" windowHeight="8976" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,23 @@
     <rPh sb="5" eb="7">
       <t>セイコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以上高くブロックを置くことはできません。</t>
+    <rPh sb="2" eb="4">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こちに置くことはできません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -166,8 +183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B9" totalsRowShown="0">
-  <autoFilter ref="A1:B9" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -473,18 +490,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="49.69921875" customWidth="1"/>
+    <col min="2" max="2" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -508,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -516,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -524,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,19 +557,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>1010001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>1010002</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4E1753-AC21-4D31-A57D-953F049D2C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEB54F-F9B4-4A85-B144-BB1B561E88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -115,6 +115,38 @@
   </si>
   <si>
     <t>こちに置くことはできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大レベルになっています。</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを設定してください。</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを入力してください。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネーム変更しました。</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうアップロードしています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -183,8 +215,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B16" totalsRowShown="0">
+  <autoFilter ref="A1:B16" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -490,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -575,18 +607,58 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1010001</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1010001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>1010002</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1013001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFEB54F-F9B4-4A85-B144-BB1B561E88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5855F-E3C4-4762-81D0-41F874064E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,20 @@
   </si>
   <si>
     <t>もうアップロードしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロックされています。アンロックしてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売りポイントを入力してください。</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B16" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -522,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -639,25 +653,41 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1010001</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>1010002</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
+        <v>1010001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1010002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>1013001</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5855F-E3C4-4762-81D0-41F874064E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370A263-8920-4223-B1C9-9C06CBA6BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -162,6 +162,13 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているポイントが不足しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているポイントが不足しています。</t>
   </si>
 </sst>
 </file>
@@ -229,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B20" totalsRowShown="0">
+  <autoFilter ref="A1:B20" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -669,26 +676,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>1010001</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
+        <v>1010002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>1013001</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1017001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F370A263-8920-4223-B1C9-9C06CBA6BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25F4B3-7FCD-433C-9BAB-FDE1D642155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロックされています。アンロックしてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>売りポイントを入力してください。</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -169,6 +165,15 @@
   </si>
   <si>
     <t>所持しているポイントが不足しています。</t>
+  </si>
+  <si>
+    <t>アップロード枠の開放に成功しました</t>
+  </si>
+  <si>
+    <t>ショップにて販売が開始されました</t>
+  </si>
+  <si>
+    <t>購入に成功しました</t>
   </si>
 </sst>
 </file>
@@ -236,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B20" totalsRowShown="0">
-  <autoFilter ref="A1:B20" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B22" totalsRowShown="0">
+  <autoFilter ref="A1:B22" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -543,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -663,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -671,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -679,39 +684,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>1010001</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>1010002</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1013001</v>
+        <v>1010001</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
+        <v>1010002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1013001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>1017001</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25F4B3-7FCD-433C-9BAB-FDE1D642155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BB5BC-5232-4666-A94D-7D5DC1489CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="5655" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +174,22 @@
   </si>
   <si>
     <t>購入に成功しました</t>
+  </si>
+  <si>
+    <t>ユーザーID、パスワードが正しいかを確認お願い致します。</t>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -241,8 +257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B22" totalsRowShown="0">
-  <autoFilter ref="A1:B22" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B23" totalsRowShown="0">
+  <autoFilter ref="A1:B23" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -548,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -705,33 +721,41 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>1013001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>1017001</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0BB5BC-5232-4666-A94D-7D5DC1489CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B41D95-DD31-4A56-87DA-E9D8022B9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>こちに置くことはできません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最大レベルになっています。</t>
     <rPh sb="0" eb="2">
       <t>サイダイ</t>
@@ -188,6 +184,22 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲を超えているので、範囲内に設置してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -566,16 +578,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -591,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -607,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -615,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -623,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,7 +643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -639,95 +651,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>101001</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1010001</v>
       </c>
@@ -735,7 +747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1010002</v>
       </c>
@@ -743,20 +755,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1013001</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1017001</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B41D95-DD31-4A56-87DA-E9D8022B9D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77FF45-6A8C-41FF-9DCA-1ABB0495E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -200,6 +200,19 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持数1,000ポイント以上から交換することができます。</t>
+    <rPh sb="0" eb="3">
+      <t>ショジスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B23" totalsRowShown="0">
-  <autoFilter ref="A1:B23" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B24" totalsRowShown="0">
+  <autoFilter ref="A1:B24" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -576,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -733,41 +746,49 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>101001</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
+        <v>1013001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>1017001</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D77FF45-6A8C-41FF-9DCA-1ABB0495E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A164E24-0736-4793-BB5B-09B6CCE949E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -213,6 +213,13 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここに置くことができません。</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,8 +289,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B24" totalsRowShown="0">
-  <autoFilter ref="A1:B24" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B25" totalsRowShown="0">
+  <autoFilter ref="A1:B25" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -589,18 +596,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="56.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -616,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -640,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -648,7 +655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -656,7 +663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -664,7 +671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -672,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -680,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -688,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -696,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -704,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -712,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -720,7 +727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -728,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -736,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -744,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -752,43 +759,51 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>101001</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>1010001</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>1010002</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>1013001</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>1017001</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A164E24-0736-4793-BB5B-09B6CCE949E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041D50A-6FD9-4CCC-A8C4-1254E673EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -220,6 +221,30 @@
     <t>ここに置くことができません。</t>
     <rPh sb="3" eb="4">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルはヒントメッセージを設定します。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -228,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,21 +269,62 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -267,8 +333,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -815,4 +890,46 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A73026-D2F9-4DF4-886D-7061ADC06248}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3041D50A-6FD9-4CCC-A8C4-1254E673EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC03BB-F861-4C23-93EA-5D77D57D3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="6210" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -246,6 +246,10 @@
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムをもらいました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,8 +365,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B25" totalsRowShown="0">
-  <autoFilter ref="A1:B25" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B26" totalsRowShown="0">
+  <autoFilter ref="A1:B26" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -668,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -844,41 +848,49 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>101001</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
+        <v>1013001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>1017001</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
@@ -896,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A73026-D2F9-4DF4-886D-7061ADC06248}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DC03BB-F861-4C23-93EA-5D77D57D3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E4861-F685-42D4-A56B-C3D29066B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -250,6 +250,16 @@
   </si>
   <si>
     <t>アイテムをもらいました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除したいアイテムを選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,8 +375,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B26" totalsRowShown="0">
-  <autoFilter ref="A1:B26" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B28" totalsRowShown="0">
+  <autoFilter ref="A1:B28" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -672,13 +682,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -856,41 +866,54 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>101001</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1010002</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1013001</v>
+        <v>1010001</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
+        <v>1010002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1013001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>1017001</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4E4861-F685-42D4-A56B-C3D29066B0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB93F3-E2E8-4813-A044-D52CCBD89C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="2550" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -260,6 +260,62 @@
     <rPh sb="10" eb="12">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを入力してください。</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントを更新しました。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンドをフォローしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレンドをフォロー解除しました。</t>
+    <rPh sb="9" eb="11">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したアカウントは見つけません。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大フレンド数になりました。</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このユーザーのフレンドが最大になっていっます。</t>
+    <rPh sb="12" eb="14">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このユーザーはもうフォローしています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -375,8 +431,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B28" totalsRowShown="0">
-  <autoFilter ref="A1:B28" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B36" totalsRowShown="0">
+  <autoFilter ref="A1:B36" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -682,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -874,47 +930,111 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>101001</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>1003001</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1010001</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1010002</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>1013001</v>
+        <v>101001</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
+        <v>1003001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1010001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1010002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>1013001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>1017001</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1033001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>1033003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1033004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1038001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EB93F3-E2E8-4813-A044-D52CCBD89C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46012F07-826A-4A9E-AF95-F4368EBB4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -316,6 +316,19 @@
   </si>
   <si>
     <t>このユーザーはもうフォローしています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容が空になっています。ブロックを含めてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,8 +444,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B36" totalsRowShown="0">
-  <autoFilter ref="A1:B36" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -738,13 +751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -962,78 +975,86 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>101001</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1010001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
+        <v>1033004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>1038001</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46012F07-826A-4A9E-AF95-F4368EBB4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B4E67-A7F6-48E1-9C2A-E2FC23AF03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,15 +319,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容が空になっています。ブロックを含めてください。</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>フク</t>
+    <t>コピーするブロックがありません。ブロックのある場所をコピーしてください。</t>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -757,12 +751,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B4E67-A7F6-48E1-9C2A-E2FC23AF03E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB5F81-84CF-4D6A-8478-D008AD9DE55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -161,9 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所持しているポイントが不足しています。</t>
-  </si>
-  <si>
     <t>アップロード枠の開放に成功しました</t>
   </si>
   <si>
@@ -322,6 +319,16 @@
     <t>コピーするブロックがありません。ブロックのある場所をコピーしてください。</t>
     <rPh sb="23" eb="25">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が正しいかをチェックしてください。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -438,8 +445,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B37" totalsRowShown="0">
-  <autoFilter ref="A1:B37" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B39" totalsRowShown="0">
+  <autoFilter ref="A1:B39" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -745,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -828,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -868,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -892,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -900,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -908,7 +915,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -916,7 +923,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -924,7 +931,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -932,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -940,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -948,7 +955,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -956,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -964,7 +971,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -972,84 +979,100 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>101001</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1010001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
+        <v>1033004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>1038001</v>
       </c>
-      <c r="B37" t="s">
-        <v>35</v>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1041001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1097,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -1084,7 +1107,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -1094,7 +1117,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB5F81-84CF-4D6A-8478-D008AD9DE55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB982EF-E782-4003-A309-FD005414544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="4275" yWindow="2490" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -329,6 +329,19 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重複している所があります。作成できません。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トコロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -445,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B39" totalsRowShown="0">
-  <autoFilter ref="A1:B39" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B40" totalsRowShown="0">
+  <autoFilter ref="A1:B40" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -752,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -992,86 +1005,94 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>101001</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1010001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
+        <v>1038001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>1041001</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB982EF-E782-4003-A309-FD005414544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5E0F5E-63A5-4A69-9CAF-E7ACDE09A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2490" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="3510" yWindow="3225" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -343,6 +343,21 @@
     <rPh sb="13" eb="15">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッションボーナスをもらいました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッションが達成していませんのでもらいません。</t>
+    <rPh sb="6" eb="8">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このボーナスはもうもらいました。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B40" totalsRowShown="0">
-  <autoFilter ref="A1:B40" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B43" totalsRowShown="0">
+  <autoFilter ref="A1:B43" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -765,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1013,87 +1028,111 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>101001</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1010001</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
+        <v>1038001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>1041001</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1046001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>1046002</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5E0F5E-63A5-4A69-9CAF-E7ACDE09A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B283C6D9-45C1-49F4-A864-C55A6799073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3225" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -358,6 +358,16 @@
   </si>
   <si>
     <t>このボーナスはもうもらいました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のいいね数がいっぱいになりました。</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -473,8 +483,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B43" totalsRowShown="0">
-  <autoFilter ref="A1:B43" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B44" totalsRowShown="0">
+  <autoFilter ref="A1:B44" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -780,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1133,6 +1143,14 @@
       </c>
       <c r="B43" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1047001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B283C6D9-45C1-49F4-A864-C55A6799073C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165C5DA-7E84-42AE-8D86-966CD2CB5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="4050" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -367,6 +367,13 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠いすぎです。</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -483,8 +490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B44" totalsRowShown="0">
-  <autoFilter ref="A1:B44" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B45" totalsRowShown="0">
+  <autoFilter ref="A1:B45" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -790,13 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1046,110 +1053,118 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>101001</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1010001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
+        <v>1046002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>1047001</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165C5DA-7E84-42AE-8D86-966CD2CB5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C849C7B9-D151-4400-9608-07B9AC339AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="2835" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -374,6 +374,16 @@
     <t>遠いすぎです。</t>
     <rPh sb="0" eb="1">
       <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備成功しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B45" totalsRowShown="0">
-  <autoFilter ref="A1:B45" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B46" totalsRowShown="0">
+  <autoFilter ref="A1:B46" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -797,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1061,110 +1071,118 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>101001</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1010001</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1013001</v>
+        <v>1010002</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
+        <v>1046002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>1047001</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C849C7B9-D151-4400-9608-07B9AC339AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70AE18B-7563-4A52-A173-B29567DF6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="180" yWindow="1455" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,12 +378,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>装備成功しました。</t>
-    <rPh sb="0" eb="2">
+    <t>武器を装備してないので危ないです。</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ソウビ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
+    <rPh sb="11" eb="12">
+      <t>アブ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -813,7 +816,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5165C5DA-7E84-42AE-8D86-966CD2CB5ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A4425B-082F-43C0-ACDC-FDBA6EE3D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -374,6 +374,16 @@
     <t>遠いすぎです。</t>
     <rPh sb="0" eb="1">
       <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているチケットが不足しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B45" totalsRowShown="0">
-  <autoFilter ref="A1:B45" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B46" totalsRowShown="0">
+  <autoFilter ref="A1:B46" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -797,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1106,65 +1116,73 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
+        <v>1046002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>1047001</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\WORKS\ver2.0.0\01_ガチャ機能改修\設定ファイル\02_修正後\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A4425B-082F-43C0-ACDC-FDBA6EE3D271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A45231-3B5F-40A2-9569-E3B0707290BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -384,6 +384,26 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲内に目標がないです。</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠すぎです。</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,8 +520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B46" totalsRowShown="0">
-  <autoFilter ref="A1:B46" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B48" totalsRowShown="0">
+  <autoFilter ref="A1:B48" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -807,13 +827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1071,118 +1091,134 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>101001</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>1003001</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1010002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1013001</v>
+        <v>1010001</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1017001</v>
+        <v>1010002</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1030001</v>
+        <v>1013001</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1033003</v>
+        <v>1030001</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1033004</v>
+        <v>1033001</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1038001</v>
+        <v>1033003</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1041001</v>
+        <v>1033004</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1046001</v>
+        <v>1038001</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1046002</v>
+        <v>1041001</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
+        <v>1046001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>1046002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>1047001</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A45231-3B5F-40A2-9569-E3B0707290BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE05B19-7D21-43D4-B4A9-4F260DB236BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -404,6 +404,35 @@
     <t>遠すぎです。</t>
     <rPh sb="0" eb="1">
       <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所持しているロイヤルコインが不足しています。</t>
+    <rPh sb="0" eb="2">
+      <t>ショジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交換可能な上限まで交換済です。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,8 +549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B48" totalsRowShown="0">
-  <autoFilter ref="A1:B48" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B50" totalsRowShown="0">
+  <autoFilter ref="A1:B50" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -827,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1136,89 +1165,105 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1013001</v>
+        <v>1010004</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1017001</v>
+        <v>1010005</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1030001</v>
+        <v>1013001</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1033003</v>
+        <v>1030001</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1033004</v>
+        <v>1033001</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1038001</v>
+        <v>1033003</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1041001</v>
+        <v>1033004</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1046001</v>
+        <v>1038001</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1046002</v>
+        <v>1041001</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
+        <v>1046001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1046002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>1047001</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE05B19-7D21-43D4-B4A9-4F260DB236BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E07D04F-021F-4C17-AA31-E356A9D1892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -549,8 +549,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B50" totalsRowShown="0">
-  <autoFilter ref="A1:B50" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B51" totalsRowShown="0">
+  <autoFilter ref="A1:B51" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -856,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1165,105 +1165,113 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
+        <v>1046002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>1047001</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E07D04F-021F-4C17-AA31-E356A9D1892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B5715-5F02-400B-B2A1-A5A71C703F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -433,6 +433,19 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器がないと危ないので、装備してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B51" totalsRowShown="0">
-  <autoFilter ref="A1:B51" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B52" totalsRowShown="0">
+  <autoFilter ref="A1:B52" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -856,13 +869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1136,142 +1149,150 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>101001</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1010001</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
+        <v>1046002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>1047001</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7B5715-5F02-400B-B2A1-A5A71C703F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456DEEF-DCEE-4EDF-B272-360A1AEC8DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -445,6 +445,16 @@
       <t>アブ</t>
     </rPh>
     <rPh sb="12" eb="14">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備してるので、装備できません。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>ソウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -562,8 +572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B52" totalsRowShown="0">
-  <autoFilter ref="A1:B52" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B53" totalsRowShown="0">
+  <autoFilter ref="A1:B53" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -869,13 +879,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1157,142 +1167,150 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>101001</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1010001</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
+        <v>1046002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>1047001</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456DEEF-DCEE-4EDF-B272-360A1AEC8DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377ECE2-3402-45C1-B836-9A46C252D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -456,6 +456,16 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう鑑定終わりです。</t>
+    <rPh sb="2" eb="4">
+      <t>カンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,8 +582,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B53" totalsRowShown="0">
-  <autoFilter ref="A1:B53" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B54" totalsRowShown="0">
+  <autoFilter ref="A1:B54" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -879,13 +889,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1312,6 +1322,14 @@
       </c>
       <c r="B53" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>1054001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377ECE2-3402-45C1-B836-9A46C252D982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CE26D-F869-41A6-A9A2-759CFD22E981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -388,26 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃範囲内に目標がないです。</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ハンイナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠すぎです。</t>
-    <rPh sb="0" eb="1">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>所持しているロイヤルコインが不足しています。</t>
     <rPh sb="0" eb="2">
       <t>ショジ</t>
@@ -466,6 +446,19 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が遠くて攻撃があたらない！</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -892,10 +885,10 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1156,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -1164,7 +1157,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -1172,7 +1165,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -1180,7 +1173,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1225,7 +1218,7 @@
         <v>1010004</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1233,7 +1226,7 @@
         <v>1010005</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -1329,7 +1322,7 @@
         <v>1054001</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CE26D-F869-41A6-A9A2-759CFD22E981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF739A-72A1-40FE-8295-BC6480C7E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="870" windowWidth="21690" windowHeight="12525" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -459,6 +459,22 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーとの接続が失敗しました。もう一回操作してください。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,8 +591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B54" totalsRowShown="0">
-  <autoFilter ref="A1:B54" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B55" totalsRowShown="0">
+  <autoFilter ref="A1:B55" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -882,13 +898,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1178,150 +1194,158 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>101001</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1010001</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1047001</v>
+        <v>1046002</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
+        <v>1047001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
         <v>1054001</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AF739A-72A1-40FE-8295-BC6480C7E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B77736-8C8D-4A9A-8A17-FEEA40BF7BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -476,6 +476,10 @@
     <rPh sb="20" eb="22">
       <t>ソウサ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜しか寝ることができません</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -591,8 +595,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B55" totalsRowShown="0">
-  <autoFilter ref="A1:B55" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B56" totalsRowShown="0">
+  <autoFilter ref="A1:B56" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -898,13 +902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1202,150 +1206,158 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>101001</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1010001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1047001</v>
+        <v>1046002</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
+        <v>1047001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
         <v>1054001</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B77736-8C8D-4A9A-8A17-FEEA40BF7BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BAF51C-24F2-4BA1-A81E-B855FAF14E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -480,6 +480,10 @@
   </si>
   <si>
     <t>夜しか寝ることができません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土もしくは土草ブロックのみに使用できます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -595,8 +599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B56" totalsRowShown="0">
-  <autoFilter ref="A1:B56" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B57" totalsRowShown="0">
+  <autoFilter ref="A1:B57" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -902,13 +906,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1214,150 +1218,158 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>101001</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>1003001</v>
+        <v>101001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1010001</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1010002</v>
+        <v>1010001</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1010003</v>
+        <v>1010002</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1010004</v>
+        <v>1010003</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1010005</v>
+        <v>1010004</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1013001</v>
+        <v>1010005</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1017001</v>
+        <v>1013001</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1030001</v>
+        <v>1017001</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1033001</v>
+        <v>1030001</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1033003</v>
+        <v>1033001</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1033004</v>
+        <v>1033003</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1038001</v>
+        <v>1033004</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1041001</v>
+        <v>1038001</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1046001</v>
+        <v>1041001</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1046002</v>
+        <v>1046001</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1047001</v>
+        <v>1046002</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
+        <v>1047001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>1054001</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>51</v>
       </c>
     </row>

--- a/Config/Excel/ErrorMsg.xlsx
+++ b/Config/Excel/ErrorMsg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BAF51C-24F2-4BA1-A81E-B855FAF14E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF755B4A-DFC1-407E-9456-0CB57E51DEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A815C78-746F-48FB-ADD3-B05575D3E56E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -485,13 +485,19 @@
   <si>
     <t>土もしくは土草ブロックのみに使用できます。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図の高さが限界を超えています。低いところに設置してください。</t>
+  </si>
+  <si>
+    <t>ホームの範囲を超えているので、範囲内に設置してください。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +521,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -571,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,6 +591,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,8 +614,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B57" totalsRowShown="0">
-  <autoFilter ref="A1:B57" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}" name="テーブル1" displayName="テーブル1" ref="A1:B59" totalsRowShown="0">
+  <autoFilter ref="A1:B59" xr:uid="{131D431C-3F3D-41CD-92BD-CBB94BDEAF84}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E7C7AA00-2001-4E9F-A2BD-A60BBB074A7C}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E3DB3538-34CE-4A40-A24C-5EB359BD1795}" name="Message"/>
@@ -906,13 +921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418ABF02-2D6E-4287-893F-D65E09EEE180}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1146,31 +1161,31 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -1178,198 +1193,214 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>101001</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>1003001</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>1010001</v>
+        <v>101001</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>1010002</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
+        <v>1003001</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>1010003</v>
+        <v>1010001</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>1010004</v>
+        <v>1010002</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>1010005</v>
+        <v>1010003</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>1013001</v>
+        <v>1010004</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>1017001</v>
+        <v>1010005</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>1030001</v>
+        <v>1013001</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>1033001</v>
+        <v>1017001</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>1033003</v>
+        <v>1030001</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>1033004</v>
+        <v>1033001</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>1038001</v>
+        <v>1033003</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>1041001</v>
+        <v>1033004</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>1046001</v>
+        <v>1038001</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>1046002</v>
+        <v>1041001</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>1047001</v>
+        <v>1046001</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
+        <v>1046002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>1047001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>1054001</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>51</v>
       </c>
     </row>
